--- a/results/Group2-Qualitative-Results.xlsx
+++ b/results/Group2-Qualitative-Results.xlsx
@@ -40,7 +40,7 @@
     <t>DateAndTime</t>
   </si>
   <si>
-    <t>G1-USER-1</t>
+    <t>G2-USER-1</t>
   </si>
   <si>
     <t>This is still terrible with a trackpad! :P  I can't zone in and out fast enough to make it work in the time allotted.  I did the best I could though.</t>
@@ -61,7 +61,7 @@
     <t>Sun Dec 06 2015 00:49:28 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-2</t>
+    <t>G2-USER-2</t>
   </si>
   <si>
     <t>No issues on my end. ^w^</t>
@@ -79,7 +79,7 @@
     <t>Sun Dec 06 2015 02:16:18 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-3</t>
+    <t>G2-USER-3</t>
   </si>
   <si>
     <t>ZOOMING IN AND OUT WAS NOT THAT RESPONSIVE</t>
@@ -94,7 +94,7 @@
     <t>Sun Dec 06 2015 09:18:04 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-4</t>
+    <t>G2-USER-4</t>
   </si>
   <si>
     <t>Thanks for giving me the opportunity to take this study.</t>
@@ -109,7 +109,7 @@
     <t>Sun Dec 06 2015 10:48:10 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-5</t>
+    <t>G2-USER-5</t>
   </si>
   <si>
     <t>Even when zooming in the page was still very blurry and the lines were extremely small and hard to see. The page lagged a little bit which made the time all the more difficult to beat . Other than that good survey</t>
@@ -124,7 +124,7 @@
     <t>Sun Dec 06 2015 10:01:52 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-6</t>
+    <t>G2-USER-6</t>
   </si>
   <si>
     <t>not really enough time, by the tiime I got  the highlighted nodes centered and the right size I barely had time to find anything but otherwise ONE OF THE MOST FUN TESTS I HAVE EVER DONE ON MTURK</t>
@@ -139,7 +139,7 @@
     <t>Sun Dec 06 2015 11:00:33 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-7</t>
+    <t>G2-USER-7</t>
   </si>
   <si>
     <t>The time allotted for the questions where you have to connect the ingredients linked to two ingredients, should be increased.</t>
@@ -154,7 +154,7 @@
     <t>Sun Dec 06 2015 14:04:21 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-8</t>
+    <t>G2-USER-8</t>
   </si>
   <si>
     <t>interesting</t>
@@ -169,7 +169,7 @@
     <t>Sun Dec 06 2015 11:07:33 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-9</t>
+    <t>G2-USER-9</t>
   </si>
   <si>
     <t>the time given to check the connections was not enough.</t>
@@ -184,7 +184,7 @@
     <t>Sun Dec 06 2015 22:40:50 GMT 0300 (E. Africa Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-10</t>
+    <t>G2-USER-10</t>
   </si>
   <si>
     <t>Much too little time to select all of the ingredients.</t>
@@ -199,7 +199,7 @@
     <t>Mon Dec 07 2015 12:13:06 GMT 0100 (W. Europe Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-11</t>
+    <t>G2-USER-11</t>
   </si>
   <si>
     <t>no easy but did the best I could</t>
@@ -217,7 +217,7 @@
     <t>Mon Dec 07 2015 09:00:47 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-12</t>
+    <t>G2-USER-12</t>
   </si>
   <si>
     <t>I didn't reallize I only had a few seconds during the real study to find the answers. It wouldve been helpful if that was made clear during the training, because I thought I could take my time.</t>
@@ -232,10 +232,10 @@
     <t>Mon Dec 07 2015 09:55:13 GMT-0800 (PST)</t>
   </si>
   <si>
-    <t>G1-USER-13</t>
-  </si>
-  <si>
-    <t>G1-USER-14</t>
+    <t>G2-USER-13</t>
+  </si>
+  <si>
+    <t>G2-USER-14</t>
   </si>
   <si>
     <t>no</t>
@@ -250,7 +250,7 @@
     <t>Mon Dec 07 2015 12:16:54 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-15</t>
+    <t>G2-USER-15</t>
   </si>
   <si>
     <t>0.6,0.2</t>
@@ -262,7 +262,7 @@
     <t>Mon Dec 07 2015 13:45:58 GMT-0600 (Central America Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-16</t>
+    <t>G2-USER-16</t>
   </si>
   <si>
     <t>Would not zoom with scroll wheel.Chrome Version 46.0.2490.71 Built on 8.2, running on Debian 8.2 (64-bit)</t>
@@ -274,7 +274,7 @@
     <t>Mon Dec 07 2015 13:41:17 GMT-0700 (MST)</t>
   </si>
   <si>
-    <t>G1-USER-17</t>
+    <t>G2-USER-17</t>
   </si>
   <si>
     <t>It would help if the pages started off zoomed in to the region the question focused on given the limited amount of time per question. Also, the zoom feature had a delay which made it take longer to see what circles were connected</t>
@@ -289,7 +289,7 @@
     <t>Mon Dec 07 2015 14:40:43 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-18</t>
+    <t>G2-USER-18</t>
   </si>
   <si>
     <t>The time limit is way too short.</t>
@@ -304,7 +304,7 @@
     <t>Mon Dec 07 2015 21:39:42 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-19</t>
+    <t>G2-USER-19</t>
   </si>
   <si>
     <t>Try to explain the 2nd part of the story better, ensuring that double-clicking IS the thing to do.neat otherwise</t>
@@ -319,7 +319,7 @@
     <t>Mon Dec 07 2015 19:45:38 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-20</t>
+    <t>G2-USER-20</t>
   </si>
   <si>
     <t>Did not find any issues.</t>
@@ -334,7 +334,7 @@
     <t>Mon Dec 07 2015 20:50:39 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-21</t>
+    <t>G2-USER-21</t>
   </si>
   <si>
     <t>It's very interesting!</t>
@@ -349,7 +349,7 @@
     <t>Tue Dec 08 2015 00:03:07 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-22</t>
+    <t>G2-USER-22</t>
   </si>
   <si>
     <t>It was hard to keep up</t>
@@ -361,7 +361,7 @@
     <t>Tue Dec 08 2015 01:16:54 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-23</t>
+    <t>G2-USER-23</t>
   </si>
   <si>
     <t>0.6,0.41666666666666663</t>
@@ -376,7 +376,7 @@
     <t>Mon Dec 07 2015 22:20:19 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-24</t>
+    <t>G2-USER-24</t>
   </si>
   <si>
     <t>I had no issues</t>
@@ -391,7 +391,7 @@
     <t>Tue Dec 08 2015 01:34:21 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-25</t>
+    <t>G2-USER-25</t>
   </si>
   <si>
     <t>No comments</t>
@@ -406,7 +406,7 @@
     <t>Tue Dec 08 2015 15:16:36 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-26</t>
+    <t>G2-USER-26</t>
   </si>
   <si>
     <t>This thing sucks.</t>
@@ -421,7 +421,7 @@
     <t>Tue Dec 08 2015 16:26:27 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-27</t>
+    <t>G2-USER-27</t>
   </si>
   <si>
     <t>It was a lot harder than the practice!</t>
@@ -433,7 +433,7 @@
     <t>Tue Dec 08 2015 18:44:41 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-28</t>
+    <t>G2-USER-28</t>
   </si>
   <si>
     <t>did not understand why I was in error when I clicked on all the ingredients connected to the red highlighted ones.</t>
@@ -451,7 +451,7 @@
     <t>Tue Dec 08 2015 19:41:27 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-29</t>
+    <t>G2-USER-29</t>
   </si>
   <si>
     <t>4.4,28.2</t>
@@ -463,7 +463,7 @@
     <t>Tue Dec 08 2015 17:48:02 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-30</t>
+    <t>G2-USER-30</t>
   </si>
   <si>
     <t>I feel like I could have done better with more time to get accustomed to moving around.</t>
@@ -478,7 +478,7 @@
     <t>Wed Dec 09 2015 00:33:04 GMT-0600 (Central Standard Time (Mexico))</t>
   </si>
   <si>
-    <t>G1-USER-31</t>
+    <t>G2-USER-31</t>
   </si>
   <si>
     <t>No feedback. Thanks.</t>
@@ -493,7 +493,7 @@
     <t>Wed Dec 09 2015 09:45:15 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-32</t>
+    <t>G2-USER-32</t>
   </si>
   <si>
     <t>it was a bit hard to complete but I think I did OK</t>
@@ -508,7 +508,7 @@
     <t>Wed Dec 09 2015 10:26:37 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-33</t>
+    <t>G2-USER-33</t>
   </si>
   <si>
     <t>0.6,0.6333333333333334</t>
@@ -520,7 +520,7 @@
     <t>Wed Dec 09 2015 10:54:51 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-34</t>
+    <t>G2-USER-34</t>
   </si>
   <si>
     <t>That was kind of tricky. I have partial color blindness.</t>
@@ -538,7 +538,7 @@
     <t>Wed Dec 09 2015 12:15:49 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-35</t>
+    <t>G2-USER-35</t>
   </si>
   <si>
     <t>None.</t>
@@ -553,7 +553,7 @@
     <t>Wed Dec 09 2015 12:08:59 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-36</t>
+    <t>G2-USER-36</t>
   </si>
   <si>
     <t>Thanks!</t>
@@ -568,7 +568,7 @@
     <t>Tue Dec 08 2015 12:22:02 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-37</t>
+    <t>G2-USER-37</t>
   </si>
   <si>
     <t>This was fun!</t>
@@ -583,7 +583,7 @@
     <t>Tue Dec 08 2015 13:22:35 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-38</t>
+    <t>G2-USER-38</t>
   </si>
   <si>
     <t>I have no comments.</t>
@@ -598,7 +598,7 @@
     <t>Tue Dec 08 2015 14:01:25 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-39</t>
+    <t>G2-USER-39</t>
   </si>
   <si>
     <t>0.5,0.7,0.0</t>
@@ -613,7 +613,7 @@
     <t>Tue Dec 08 2015 16:03:32 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-40</t>
+    <t>G2-USER-40</t>
   </si>
   <si>
     <t>No.</t>
@@ -628,7 +628,7 @@
     <t>Tue Dec 08 2015 14:17:32 GMT-0800 (PST)</t>
   </si>
   <si>
-    <t>G1-USER-41</t>
+    <t>G2-USER-41</t>
   </si>
   <si>
     <t>NO</t>
@@ -640,7 +640,7 @@
     <t>Tue Dec 08 2015 18:02:40 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-42</t>
+    <t>G2-USER-42</t>
   </si>
   <si>
     <t>I enjoyed doing this study!  Very fun :)</t>
@@ -655,7 +655,7 @@
     <t>Tue Dec 08 2015 19:45:55 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-43</t>
+    <t>G2-USER-43</t>
   </si>
   <si>
     <t>Interacting with the graphs was pretty slow (on my computer, a mediocre laptop from 2011 and using Firefox) so it was hard to do within the limited time available.</t>
@@ -667,7 +667,7 @@
     <t>Tue Dec 08 2015 18:36:32 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-44</t>
+    <t>G2-USER-44</t>
   </si>
   <si>
     <t>No</t>
@@ -685,7 +685,7 @@
     <t>Tue Dec 08 2015 19:54:47 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-45</t>
+    <t>G2-USER-45</t>
   </si>
   <si>
     <t>Timers do not allow for one to even focus on what they are looking at.</t>
@@ -700,7 +700,7 @@
     <t>Wed Dec 09 2015 08:47:06 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-46</t>
+    <t>G2-USER-46</t>
   </si>
   <si>
     <t>This was EXTREMELY difficult. On number 16, I couldn't even find the second blue with time to analyse. and overall it was very difficult to navigate as if you were highlighting anything, the scroll function would not work (Chrome).</t>
@@ -715,7 +715,7 @@
     <t>Sun Dec 06 2015 17:29:01 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-47</t>
+    <t>G2-USER-47</t>
   </si>
   <si>
     <t>Panning and zooming in are both extremely slow, and because of the density of the web, I often had to zoom back out so my clicks would register when I tried to drag.  Also, the selected purple and the neutral gray are somewhat close and it takes a moment to distinguish which is which when the web is very dense.</t>
@@ -730,7 +730,7 @@
     <t>Sun Dec 06 2015 14:47:01 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-48</t>
+    <t>G2-USER-48</t>
   </si>
   <si>
     <t>0.6499999999999999,0.6</t>
@@ -742,7 +742,7 @@
     <t>Sun Dec 06 2015 17:01:31 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-49</t>
+    <t>G2-USER-49</t>
   </si>
   <si>
     <t>Very angry I didn't get time</t>
@@ -757,7 +757,7 @@
     <t>Sun Dec 06 2015 11:14:35 GMT 0000 (UTC)</t>
   </si>
   <si>
-    <t>G1-USER-50</t>
+    <t>G2-USER-50</t>
   </si>
   <si>
     <t>Much time was wasted moving the screen around, zooming, trying to deselect</t>
@@ -772,7 +772,7 @@
     <t>Sun Dec 06 2015 16:35:11 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-51</t>
+    <t>G2-USER-51</t>
   </si>
   <si>
     <t>This was difficult.</t>
@@ -787,7 +787,7 @@
     <t>Sun Dec 06 2015 19:58:11 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-52</t>
+    <t>G2-USER-52</t>
   </si>
   <si>
     <t>Scrolling in and out should be possible anywhere, not just while the mouse cursor is over empty space.</t>
@@ -799,7 +799,7 @@
     <t>Sun Dec 06 2015 17:11:57 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-53</t>
+    <t>G2-USER-53</t>
   </si>
   <si>
     <t>It was challenging and somewhat difficult but fun.</t>
@@ -814,7 +814,7 @@
     <t>Sun Dec 06 2015 20:17:39 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-54</t>
+    <t>G2-USER-54</t>
   </si>
   <si>
     <t>0.5666666666666667,0.3</t>
@@ -826,7 +826,7 @@
     <t>Sun Dec 06 2015 22:38:05 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-55</t>
+    <t>G2-USER-55</t>
   </si>
   <si>
     <t>This was hard to do quickly.</t>
@@ -841,7 +841,7 @@
     <t>Sun Dec 06 2015 22:04:34 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-56</t>
+    <t>G2-USER-56</t>
   </si>
   <si>
     <t>The timer made me nervous!</t>
@@ -856,7 +856,7 @@
     <t>Tue Dec 08 2015 09:41:51 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-57</t>
+    <t>G2-USER-57</t>
   </si>
   <si>
     <t>0.7333333333333333,0.4</t>
@@ -868,7 +868,7 @@
     <t>Tue Dec 08 2015 09:43:02 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-58</t>
+    <t>G2-USER-58</t>
   </si>
   <si>
     <t>This study is informative.</t>
@@ -883,7 +883,7 @@
     <t>Tue Dec 08 2015 22:49:48 GMT 0800 (Malay Peninsula Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-59</t>
+    <t>G2-USER-59</t>
   </si>
   <si>
     <t>This task is really hard as the time is really too short for task 1</t>
@@ -898,7 +898,7 @@
     <t>Tue Dec 08 2015 11:13:14 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-60</t>
+    <t>G2-USER-60</t>
   </si>
   <si>
     <t>0.8,0.5</t>
@@ -910,7 +910,7 @@
     <t>Tue Dec 08 2015 08:22:43 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-61</t>
+    <t>G2-USER-61</t>
   </si>
   <si>
     <t>that was cool</t>
@@ -925,7 +925,7 @@
     <t>Tue Dec 08 2015 10:26:38 GMT-0600 (CST)</t>
   </si>
   <si>
-    <t>G1-USER-62</t>
+    <t>G2-USER-62</t>
   </si>
   <si>
     <t>None</t>
@@ -943,7 +943,7 @@
     <t>Tue Dec 08 2015 11:32:37 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-63</t>
+    <t>G2-USER-63</t>
   </si>
   <si>
     <t>0.65,0.5</t>
@@ -955,7 +955,7 @@
     <t>Tue Dec 08 2015 11:46:08 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-64</t>
+    <t>G2-USER-64</t>
   </si>
   <si>
     <t>I feel like I didn't have enough time to properly answer all of the questions.</t>
@@ -970,7 +970,7 @@
     <t>Tue Dec 08 2015 13:16:16 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-65</t>
+    <t>G2-USER-65</t>
   </si>
   <si>
     <t>Spread of the network too large to be able to see all the connections at the same time when zooming in</t>
@@ -985,7 +985,7 @@
     <t>Tue Dec 08 2015 13:24:40 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-66</t>
+    <t>G2-USER-66</t>
   </si>
   <si>
     <t>0.7166666666666666,0.2</t>
@@ -997,7 +997,7 @@
     <t>Tue Dec 08 2015 13:27:21 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-67</t>
+    <t>G2-USER-67</t>
   </si>
   <si>
     <t>the image is too small and it needs more time to zoom it</t>
@@ -1012,7 +1012,7 @@
     <t>Sat Dec 05 2015 23:55:33 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-68</t>
+    <t>G2-USER-68</t>
   </si>
   <si>
     <t>NONE</t>
@@ -1027,7 +1027,7 @@
     <t>Sun Dec 06 2015 08:21:10 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-69</t>
+    <t>G2-USER-69</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1042,7 +1042,7 @@
     <t>Sun Dec 06 2015 09:04:18 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-70</t>
+    <t>G2-USER-70</t>
   </si>
   <si>
     <t>extremely frustrating task for someone who is a bit of a perfectionist</t>
@@ -1057,7 +1057,7 @@
     <t>Sun Dec 06 2015 09:06:57 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-71</t>
+    <t>G2-USER-71</t>
   </si>
   <si>
     <t>That was difficult and not enough time to zoom in and see to make the right choices.</t>
@@ -1072,7 +1072,7 @@
     <t>Sun Dec 06 2015 13:32:46 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-72</t>
+    <t>G2-USER-72</t>
   </si>
   <si>
     <t>no issues</t>
@@ -1087,7 +1087,7 @@
     <t>Sun Dec 06 2015 13:51:51 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-73</t>
+    <t>G2-USER-73</t>
   </si>
   <si>
     <t>GREAT SURVEY!I ENJOYED THE SURVEY!</t>
@@ -1105,7 +1105,7 @@
     <t>Sun Dec 06 2015 14:01:32 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-74</t>
+    <t>G2-USER-74</t>
   </si>
   <si>
     <t>I am a little confused about what the "shortest ingredient path" means really...it doesnt seem to mean fewest number of shared ingredients....i had a harder time with that part of it.</t>
@@ -1120,7 +1120,7 @@
     <t>Sun Dec 06 2015 14:16:56 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-75</t>
+    <t>G2-USER-75</t>
   </si>
   <si>
     <t>It was hard to work fast enough. The training took longer than I expected to figure out.</t>
@@ -1135,7 +1135,7 @@
     <t>Mon Dec 07 2015 00:31:08 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-76</t>
+    <t>G2-USER-76</t>
   </si>
   <si>
     <t>Wasn't allowing me to access some of the highlighted ingredients. Tough to navigate when under a timed task.</t>
@@ -1153,7 +1153,7 @@
     <t>Mon Dec 07 2015 09:32:46 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-77</t>
+    <t>G2-USER-77</t>
   </si>
   <si>
     <t>This was really hard.</t>
@@ -1168,7 +1168,7 @@
     <t>Mon Dec 07 2015 10:52:41 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-78</t>
+    <t>G2-USER-78</t>
   </si>
   <si>
     <t>I thought study was a little confusing; maybe I'm just not all there today because I'm feeling sick.</t>
@@ -1180,7 +1180,7 @@
     <t>Mon Dec 07 2015 12:10:07 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-79</t>
+    <t>G2-USER-79</t>
   </si>
   <si>
     <t>The network graphs were way too big to be able to answer the second set of questions in less than 30 seconds and I had my window maximized.</t>
@@ -1195,7 +1195,7 @@
     <t>Mon Dec 07 2015 13:51:04 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-80</t>
+    <t>G2-USER-80</t>
   </si>
   <si>
     <t>The controls are a bit clunky, and the initial information had me very confused as to what I had to click to actually select an answer.</t>
@@ -1204,7 +1204,7 @@
     <t>Mon Dec 07 2015 14:21:26 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-81</t>
+    <t>G2-USER-81</t>
   </si>
   <si>
     <t>The interface was pretty clunky and hard to navigate.</t>
@@ -1216,7 +1216,7 @@
     <t>Mon Dec 07 2015 13:22:24 GMT-0700 (US Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-82</t>
+    <t>G2-USER-82</t>
   </si>
   <si>
     <t>0.1,0.7333333333333334</t>
@@ -1228,7 +1228,7 @@
     <t>Mon Dec 07 2015 16:23:44 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-83</t>
+    <t>G2-USER-83</t>
   </si>
   <si>
     <t>Nope! No issues.</t>
@@ -1243,7 +1243,7 @@
     <t>Tue Dec 08 2015 12:56:24 GMT 0900 (KST)</t>
   </si>
   <si>
-    <t>G1-USER-84</t>
+    <t>G2-USER-84</t>
   </si>
   <si>
     <t>0.2,0.55</t>
@@ -1255,7 +1255,7 @@
     <t>Mon Dec 07 2015 23:16:02 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-85</t>
+    <t>G2-USER-85</t>
   </si>
   <si>
     <t>It was really hard to navigate the zoom feature and was very hard to use.</t>
@@ -1270,7 +1270,7 @@
     <t>Mon Dec 07 2015 22:22:59 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-86</t>
+    <t>G2-USER-86</t>
   </si>
   <si>
     <t>The questions moved too quickly for how small the dots for the ingredients were.</t>
@@ -1285,7 +1285,7 @@
     <t>Mon Dec 07 2015 21:23:10 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-87</t>
+    <t>G2-USER-87</t>
   </si>
   <si>
     <t>Once I figured out how to use middle mouse it was a lot faster, but you could give me 60 seconds.</t>
@@ -1300,7 +1300,7 @@
     <t>Tue Dec 08 2015 02:23:08 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-88</t>
+    <t>G2-USER-88</t>
   </si>
   <si>
     <t>nothing</t>
@@ -1315,7 +1315,7 @@
     <t>Tue Dec 08 2015 15:41:30 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-89</t>
+    <t>G2-USER-89</t>
   </si>
   <si>
     <t>none</t>
@@ -1327,7 +1327,7 @@
     <t>Tue Dec 08 2015 15:56:27 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-90</t>
+    <t>G2-USER-90</t>
   </si>
   <si>
     <t>No issues</t>
@@ -1345,7 +1345,7 @@
     <t>Tue Dec 08 2015 17:20:17 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-91</t>
+    <t>G2-USER-91</t>
   </si>
   <si>
     <t>While the study seemed simple and straight forward. There where a few issues with the graph. If you have two ingredients at the very bottom of the chart you will NOT be able to see both highlighted ingredients. I don't know if this is a screen resolution issue but it almost guarantees miss clicks. Mainly because you need to remain zoomed out to properly see the connected ingredients and add the fact the timers are extremely short.</t>
@@ -1360,7 +1360,7 @@
     <t>Tue Dec 08 2015 17:52:14 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-92</t>
+    <t>G2-USER-92</t>
   </si>
   <si>
     <t>0.6,0.8</t>
@@ -1372,7 +1372,7 @@
     <t>Tue Dec 08 2015 16:21:02 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-93</t>
+    <t>G2-USER-93</t>
   </si>
   <si>
     <t>It took me a minute to realize that the ingredient needed to be highlighted in black to be selected, instead of just highlighted purple. It said in the instructions to double click but I thought highlighting it would be good enough. So I got stuck on question 4 in the training.</t>
@@ -1387,7 +1387,7 @@
     <t>Tue Dec 08 2015 19:20:23 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-94</t>
+    <t>G2-USER-94</t>
   </si>
   <si>
     <t>I wish you could highlight just by clicking in the right 'line' instead of having to scroll all the way up to the name at the top, which is pretty useless and makes it really easy to lose your place, especially if you started out way at the bottom.</t>
@@ -1402,7 +1402,7 @@
     <t>Wed Dec 09 2015 00:09:15 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-95</t>
+    <t>G2-USER-95</t>
   </si>
   <si>
     <t>When trying to drag it often makes a selection. Timer is unrealistic.</t>
@@ -1417,7 +1417,7 @@
     <t>Wed Dec 09 2015 07:50:25 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-96</t>
+    <t>G2-USER-96</t>
   </si>
   <si>
     <t>No issue with the study. Would have definitely been easier if the task area expanded more to fit the browser window.Also, I assume this study is meant to gauge how effective these visualizations are, because in the future people will be using them at your (or another company). I think it would make the visualization much easier to read if, when a black dot is highlighted in red, instead of appearing as a faded black dot, it would appear in a more vibrant color, such as purple. It would make it easier to distinguish from the black dots around it which arent highlighted. I can imagine after doing this for long hours it would start playing tricks on your eyes.</t>
@@ -1432,7 +1432,7 @@
     <t>Wed Dec 09 2015 10:06:16 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-97</t>
+    <t>G2-USER-97</t>
   </si>
   <si>
     <t>3.4,21.3</t>
@@ -1441,7 +1441,7 @@
     <t>Wed Dec 09 2015 11:03:05 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-98</t>
+    <t>G2-USER-98</t>
   </si>
   <si>
     <t>0.6,1.0,0.1</t>
@@ -1453,7 +1453,7 @@
     <t>Tue Dec 08 2015 13:31:16 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-99</t>
+    <t>G2-USER-99</t>
   </si>
   <si>
     <t>0.9,1.0,0.1</t>
@@ -1465,7 +1465,7 @@
     <t>Tue Dec 08 2015 13:44:29 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-100</t>
+    <t>G2-USER-100</t>
   </si>
   <si>
     <t>Very interesting experience.  Thank you.</t>
@@ -1480,7 +1480,7 @@
     <t>Tue Dec 08 2015 12:21:37 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-101</t>
+    <t>G2-USER-101</t>
   </si>
   <si>
     <t>NO, I DID HAVE TO RESTART THE STUDY BUT AFTER THAT I DIDN'T HAVE ANY TROUBLE.</t>
@@ -1495,7 +1495,7 @@
     <t>Tue Dec 08 2015 13:51:05 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-102</t>
+    <t>G2-USER-102</t>
   </si>
   <si>
     <t>0.3,0.9,0.0</t>
@@ -1507,7 +1507,7 @@
     <t>Tue Dec 08 2015 16:33:43 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-103</t>
+    <t>G2-USER-103</t>
   </si>
   <si>
     <t>I have an older mac, with no wheel so I couldn't zoom</t>
@@ -1522,7 +1522,7 @@
     <t>Tue Dec 08 2015 17:41:09 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-104</t>
+    <t>G2-USER-104</t>
   </si>
   <si>
     <t>My computer was a little slow zooming and panning but overall no real issues.</t>
@@ -1537,7 +1537,7 @@
     <t>Tue Dec 08 2015 20:37:57 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-105</t>
+    <t>G2-USER-105</t>
   </si>
   <si>
     <t>For some of the "are they in the same group" questions, a highlighted item was on the border making it tough to tell without going to the other axis (which I didn't have time to do).</t>
@@ -1552,7 +1552,7 @@
     <t>Tue Dec 08 2015 21:49:59 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-106</t>
+    <t>G2-USER-106</t>
   </si>
   <si>
     <t>1.0,0.7,0.0</t>
@@ -1564,7 +1564,7 @@
     <t>Wed Dec 09 2015 07:18:57 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-107</t>
+    <t>G2-USER-107</t>
   </si>
   <si>
     <t>Was difficult</t>
@@ -1579,7 +1579,7 @@
     <t>Sun Dec 06 2015 17:11:16 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-108</t>
+    <t>G2-USER-108</t>
   </si>
   <si>
     <t>I was unsure if I had to double-click and highlight my answers as well for the first half of the test.</t>
@@ -1594,7 +1594,7 @@
     <t>Sun Dec 06 2015 16:14:28 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-109</t>
+    <t>G2-USER-109</t>
   </si>
   <si>
     <t>0.9,0.6</t>
@@ -1606,7 +1606,7 @@
     <t>Sun Dec 06 2015 14:25:56 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-110</t>
+    <t>G2-USER-110</t>
   </si>
   <si>
     <t>0.85,0.2</t>
@@ -1618,7 +1618,7 @@
     <t>Sun Dec 06 2015 14:38:54 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-111</t>
+    <t>G2-USER-111</t>
   </si>
   <si>
     <t>I could not complete some of the color blindness, so I put 0 as I am color blind to certain shades.</t>
@@ -1636,7 +1636,7 @@
     <t>Sun Dec 06 2015 15:39:12 GMT-0700 (Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-112</t>
+    <t>G2-USER-112</t>
   </si>
   <si>
     <t>the term "ingredient path" could be somewhat confusing</t>
@@ -1654,7 +1654,7 @@
     <t>Sun Dec 06 2015 16:42:23 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-113</t>
+    <t>G2-USER-113</t>
   </si>
   <si>
     <t>0.6000000000000001,0.5,0.7166666666666667</t>
@@ -1663,7 +1663,7 @@
     <t>Sun Dec 06 2015 18:15:59 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-114</t>
+    <t>G2-USER-114</t>
   </si>
   <si>
     <t>The estimation was a lot harder than the first part.</t>
@@ -1678,7 +1678,7 @@
     <t>Sun Dec 06 2015 19:26:20 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-115</t>
+    <t>G2-USER-115</t>
   </si>
   <si>
     <t>0.7166666666666667,0.1</t>
@@ -1690,7 +1690,7 @@
     <t>Sun Dec 06 2015 18:15:32 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-116</t>
+    <t>G2-USER-116</t>
   </si>
   <si>
     <t>Some of the graphs were difficult to drag and zoom w/o losing some of the data.</t>
@@ -1702,7 +1702,7 @@
     <t>Sun Dec 06 2015 20:19:14 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-117</t>
+    <t>G2-USER-117</t>
   </si>
   <si>
     <t>I'm not sure which were supposed to be the easy attention check questions, because actually zooming in so I could see them and panning was awfully slow and I didn't have time.</t>
@@ -1717,7 +1717,7 @@
     <t>Sun Dec 06 2015 21:57:29 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-118</t>
+    <t>G2-USER-118</t>
   </si>
   <si>
     <t>not easy</t>
@@ -1732,7 +1732,7 @@
     <t>Sun Dec 06 2015 22:03:00 GMT-0500 (Eastern Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-119</t>
+    <t>G2-USER-119</t>
   </si>
   <si>
     <t>I felt rushed, like there wasn't enough time for each trial.</t>
@@ -1747,7 +1747,7 @@
     <t>Mon Dec 07 2015 13:08:02 GMT-0600 (Central Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-120</t>
+    <t>G2-USER-120</t>
   </si>
   <si>
     <t>0.6666666666666666,0.0</t>
@@ -1759,7 +1759,7 @@
     <t>Tue Dec 08 2015 07:28:10 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-121</t>
+    <t>G2-USER-121</t>
   </si>
   <si>
     <t>0.95,0.3</t>
@@ -1771,7 +1771,7 @@
     <t>Tue Dec 08 2015 07:33:25 GMT-0800 (Pacific Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-122</t>
+    <t>G2-USER-122</t>
   </si>
   <si>
     <t>I was completely confused on the second section.</t>
@@ -1786,7 +1786,7 @@
     <t>Tue Dec 08 2015 10:38:05 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-123</t>
+    <t>G2-USER-123</t>
   </si>
   <si>
     <t>The timing was a little short for the interface. If the lines were relatively closer together it was easy. If they were further apart it was hard to get it done in time because it was cumbersome to scroll around to get it to a good readable distance and then pan and search. I'm on a retina display if that helps. My resolution may have been too high to do the task effectively. Also for the ingredient path questions I was just looking to see which lines were closer together. THat strategy worked for the 3 sample questions, but it may not have been a valid strategy. Not sure what you were looking for overall, but it was very interesting. I would love to have time with this interface to explore other networks like facebook or twitter or linked in.</t>
@@ -1801,7 +1801,7 @@
     <t>Tue Dec 08 2015 10:41:21 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-124</t>
+    <t>G2-USER-124</t>
   </si>
   <si>
     <t>0.9833333333333334,0.2</t>
@@ -1816,7 +1816,7 @@
     <t>Tue Dec 08 2015 10:03:49 GMT-0700 (MST)</t>
   </si>
   <si>
-    <t>G1-USER-125</t>
+    <t>G2-USER-125</t>
   </si>
   <si>
     <t>I did my best.</t>
@@ -1831,7 +1831,7 @@
     <t>Tue Dec 08 2015 10:30:03 GMT-0700 (US Mountain Standard Time)</t>
   </si>
   <si>
-    <t>G1-USER-126</t>
+    <t>G2-USER-126</t>
   </si>
   <si>
     <t>0.6,0.3</t>
@@ -1846,7 +1846,7 @@
     <t>Tue Dec 08 2015 13:50:30 GMT-0500 (EST)</t>
   </si>
   <si>
-    <t>G1-USER-127</t>
+    <t>G2-USER-127</t>
   </si>
   <si>
     <t>I did not have any issues working on this study aside from lack of time in the timed portions.</t>
